--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17895" windowHeight="4905"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>sim_tbl</t>
   </si>
@@ -151,6 +151,66 @@
   </si>
   <si>
     <t>3.sim列表 SELECT * FROM SIM_TBL WHERE KHID02= nID</t>
+  </si>
+  <si>
+    <t>分页查询</t>
+  </si>
+  <si>
+    <t>nAB</t>
+  </si>
+  <si>
+    <t>nKeyid</t>
+  </si>
+  <si>
+    <t>nPagesize</t>
+  </si>
+  <si>
+    <t>nAB = 0</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>SELECT * FROM USER_TBL WHERE Fatherid=%u AND id&gt;%u LIMIT %d</t>
+  </si>
+  <si>
+    <t>nAB = 1</t>
+  </si>
+  <si>
+    <t>上一页</t>
+  </si>
+  <si>
+    <t>SELECT * FROM USER_TBL WHERE Fatherid=%u AND id&lt;%u LIMIT %d</t>
+  </si>
+  <si>
+    <t>nAB = 2</t>
+  </si>
+  <si>
+    <t>下一页</t>
+  </si>
+  <si>
+    <t>nAB = 3</t>
+  </si>
+  <si>
+    <t>尾页</t>
+  </si>
+  <si>
+    <t>nTemp = NCOUNT%nPagesize</t>
+  </si>
+  <si>
+    <t>SELECT * FROM USER_TBL WHERE Fatherid=%u ORDER BY id desc LIMIT %d(nTemp)</t>
+  </si>
+  <si>
+    <t>新卡导入</t>
+  </si>
+  <si>
+    <t>INSERT INTO SIM_TBL (ID,JRHM,ICCID,DXZH,LLCHM,LLCLX) VALUES(NULL,'%S','%S','%s','%s','%s','%s')</t>
+  </si>
+  <si>
+    <t>出卡</t>
+  </si>
+  <si>
+    <t>UPDATE SIM_TBL SET KHID01=%U,XSRQ='%S',JLXM='%S' WHERE JRHM='%S'</t>
   </si>
 </sst>
 </file>
@@ -158,12 +218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +233,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,79 +271,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -275,8 +329,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -285,41 +370,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -332,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,17 +579,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,26 +636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -602,24 +653,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,148 +681,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,6 +1361,85 @@
       </c>
       <c r="C20" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>sim_tbl</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Du1m</t>
+  </si>
+  <si>
+    <t>Cksj</t>
   </si>
   <si>
     <t>kh_tbl</t>
@@ -218,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -233,6 +236,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,6 +283,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,6 +317,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -270,45 +325,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,48 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,19 +388,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,163 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +579,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,6 +639,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -623,15 +661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,32 +679,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,15 +1181,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,220 +1229,223 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
